--- a/Data/MasterSheet.xlsx
+++ b/Data/MasterSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f753f26af8ed471/Butterflies/CS Paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f753f26af8ed471/Butterflies/CS Paper/AEN-Paper/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="808" documentId="8_{3EA8A3FD-132A-4958-9B93-BA057FC899FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA3936C3-66EE-4259-B416-C073B350A397}"/>
+  <xr:revisionPtr revIDLastSave="811" documentId="8_{3EA8A3FD-132A-4958-9B93-BA057FC899FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24AD97F0-08AE-4CC4-98DE-8EA980C8BBE0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AE97170-CF73-4604-8C3B-4089AEDF41B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8AE97170-CF73-4604-8C3B-4089AEDF41B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4844,32 +4844,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4910,10 +4889,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5235,9 +5210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589738B5-AE52-4767-B787-7ECDC020B3D2}">
   <dimension ref="A1:V461"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34733,19 +34708,20 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V461" xr:uid="{589738B5-AE52-4767-B787-7ECDC020B3D2}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E2:E461">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>E2&lt;&gt;D2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G461">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>G2&lt;&gt;D2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H461">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>H2&lt;&gt;D2</formula>
     </cfRule>
   </conditionalFormatting>
